--- a/biology/Zoologie/Chloreuptychia/Chloreuptychia.xlsx
+++ b/biology/Zoologie/Chloreuptychia/Chloreuptychia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia est un genre néotropical de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chloreuptychia a été décrit par l'entomologiste allemand Walter Forster en 1964[1].
-Son espèce type est Papilio chloris Cramer, [1780], qui est un synonyme de Chloreuptychia chlorimene (Hübner, [1819]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chloreuptychia a été décrit par l'entomologiste allemand Walter Forster en 1964.
+Son espèce type est Papilio chloris Cramer, , qui est un synonyme de Chloreuptychia chlorimene (Hübner, ).
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après FUNET Tree of Life  (13 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après FUNET Tree of Life  (13 avril 2019) :
 Chloreuptychia agatha (Butler, 1867) — Équateur, Colombie, Brésil.
 Chloreuptychia callichloris (Butler, 1867) — Brésil.
-Chloreuptychia catharina (Staudinger, [1886]) — Pérou.
-Chloreuptychia chlorimene (Hübner, [1819]) — Équateur, Suriname, Guyane.
-Chloreuptychia herseis (Godart, [1824]) — Brésil, Pérou, Suriname, Guyana, Guyane.
+Chloreuptychia catharina (Staudinger, ) — Pérou.
+Chloreuptychia chlorimene (Hübner, ) — Équateur, Suriname, Guyane.
+Chloreuptychia herseis (Godart, ) — Brésil, Pérou, Suriname, Guyana, Guyane.
 Chloreuptychia hewitsonii (Butler, 1867) — Équateur, Brésil, Suriname, Guyane.
 Chloreuptychia marica (Weymer, 1911) — Équateur, Pérou.
 Chloreuptychia sericeella (Bates, 1865) — Guatemala.
